--- a/biology/Zoologie/Emoia_kitcheneri/Emoia_kitcheneri.xlsx
+++ b/biology/Zoologie/Emoia_kitcheneri/Emoia_kitcheneri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Emoia kitcheneri est une espèce de sauriens de la famille des Scincidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Emoia kitcheneri est une espèce de sauriens de la famille des Scincidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Emoia kitcheneri a été décrite en 1998 par Richard Alfred How (d), B. Durrant (d), Lawrence Alec Smith (d) et Najamuddin Saleh (d)[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Emoia kitcheneri a été décrite en 1998 par Richard Alfred How (d), B. Durrant (d), Lawrence Alec Smith (d) et Najamuddin Saleh (d).
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de l'île de Sumba dans les Petites îles de la Sonde en Indonésie[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de l'île de Sumba dans les Petites îles de la Sonde en Indonésie.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique, kitcheneri, lui a été donnée en l'honneur de Darrell John Kitchener (d) (1943-), conservateur au Western Australian Museum pour son enthousiasme et sa tolérance sur les aspects bureaucratiques sur cette étude en Indonésie[2],[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique, kitcheneri, lui a été donnée en l'honneur de Darrell John Kitchener (d) (1943-), conservateur au Western Australian Museum pour son enthousiasme et sa tolérance sur les aspects bureaucratiques sur cette étude en Indonésie,.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(en) R. A. How, B. Durrant, L. A. Smith et Najamuddin Saleh, « Emoia (Reptilia: Scincidae) from the Banda Arc islands of eastern Indonesia: variation in morphology and description of a new species », Records of the Western Australian Museum, Western Australian Museum, vol. 19,‎ 1998, p. 131-139 (ISSN 0312-3162, lire en ligne)</t>
         </is>
